--- a/doc/STORAGE/GlusterFS/glusterfs复制模式数据分布不一致的现象分析.xlsx
+++ b/doc/STORAGE/GlusterFS/glusterfs复制模式数据分布不一致的现象分析.xlsx
@@ -87,25 +87,15 @@
     <t>./f272eb72-e294-48fd-9d8c-d7558094f381</t>
   </si>
   <si>
-    <t>[root@GZ01A036 images]# du -h --max-depth=1 . |sort -k2</t>
-  </si>
-  <si>
     <t>|</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[root@GZ01A039 images]# du -h --max-depth=1 . |sort -k2</t>
-  </si>
-  <si>
     <t>glusterfs复制模式数据分布不一致的现象分析</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>下图是ovirt集群中vm的虚拟磁盘在glustefs replica 3模式下的分布状态：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[root@GZ01A035 images]# du -h --max-depth=1 . |sort -k2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -245,6 +235,18 @@
 glusterfs replica 3 模式下
 数据从某个主节点写入后，在复制到从节点时，看统计结果，只拷贝了数据块，因而表现为大小不一致
 小结：是不是有办法可以达到将虚拟磁盘的磁盘占用瘦身为实际大小的目的呢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[root@n35 images]# du -h --max-depth=1 . |sort -k2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[root@n36 images]# du -h --max-depth=1 . |sort -k2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[root@n39 images]# du -h --max-depth=1 . |sort -k2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -302,9 +304,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -312,6 +311,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -609,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:I42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -624,119 +626,119 @@
   <sheetData>
     <row r="2" spans="2:10">
       <c r="B2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="2:10">
       <c r="B5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>71</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>24</v>
+        <v>72</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>24</v>
+        <v>73</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>24</v>
+      <c r="D8" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F8" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>24</v>
+      <c r="G8" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I8" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>24</v>
+      <c r="J8" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>24</v>
+      <c r="D10" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>24</v>
+      <c r="G10" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I10" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>24</v>
+      <c r="J10" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="2:10">
@@ -746,8 +748,8 @@
       <c r="C11" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>24</v>
+      <c r="D11" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E11" t="s">
         <v>3</v>
@@ -755,8 +757,8 @@
       <c r="F11" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>24</v>
+      <c r="G11" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H11" t="s">
         <v>3</v>
@@ -764,37 +766,37 @@
       <c r="I11" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>24</v>
+      <c r="J11" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I12" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="2:10">
@@ -804,8 +806,8 @@
       <c r="C13" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>24</v>
+      <c r="D13" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E13" t="s">
         <v>5</v>
@@ -813,8 +815,8 @@
       <c r="F13" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>24</v>
+      <c r="G13" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H13" t="s">
         <v>5</v>
@@ -822,240 +824,240 @@
       <c r="I13" t="s">
         <v>6</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>24</v>
+      <c r="J13" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>24</v>
+      <c r="D17" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>24</v>
+      <c r="G17" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I17" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>24</v>
+      <c r="J17" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>24</v>
+        <v>39</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>24</v>
+        <v>39</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I18" t="s">
-        <v>42</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>24</v>
+        <v>39</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I19" t="s">
-        <v>44</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="3" t="s">
+      <c r="D20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I20" s="3" t="s">
+      <c r="G20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>24</v>
+      <c r="J20" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>24</v>
+        <v>44</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>47</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>24</v>
+        <v>44</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I21" t="s">
-        <v>47</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>24</v>
+        <v>44</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="2:10">
@@ -1065,8 +1067,8 @@
       <c r="C22" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>24</v>
+      <c r="D22" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
@@ -1074,8 +1076,8 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>24</v>
+      <c r="G22" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H22" t="s">
         <v>10</v>
@@ -1083,95 +1085,95 @@
       <c r="I22" t="s">
         <v>11</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>24</v>
+      <c r="J22" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E23" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I23" t="s">
-        <v>49</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>24</v>
+        <v>48</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F24" t="s">
-        <v>51</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>24</v>
+        <v>48</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>51</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>24</v>
+        <v>48</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>24</v>
+        <v>50</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E25" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>24</v>
+        <v>50</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H25" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I25" t="s">
-        <v>53</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>24</v>
+        <v>50</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="2:10">
@@ -1181,8 +1183,8 @@
       <c r="C26" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>24</v>
+      <c r="D26" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E26" t="s">
         <v>1</v>
@@ -1190,8 +1192,8 @@
       <c r="F26" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>24</v>
+      <c r="G26" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H26" t="s">
         <v>1</v>
@@ -1199,124 +1201,124 @@
       <c r="I26" t="s">
         <v>12</v>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>24</v>
+      <c r="J26" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="3" t="s">
+      <c r="B27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F27" s="3" t="s">
+      <c r="D27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I27" s="3" t="s">
+      <c r="G27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>24</v>
+      <c r="J27" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>24</v>
+        <v>53</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>24</v>
+        <v>53</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I28" t="s">
-        <v>56</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>24</v>
+        <v>53</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>24</v>
+      <c r="D29" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F29" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>24</v>
+      <c r="G29" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I29" t="s">
         <v>15</v>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>24</v>
+      <c r="J29" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>24</v>
+        <v>55</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E30" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F30" t="s">
-        <v>58</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>24</v>
+        <v>55</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H30" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I30" t="s">
-        <v>58</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>24</v>
+        <v>55</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="2:10">
@@ -1326,8 +1328,8 @@
       <c r="C31" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>24</v>
+      <c r="D31" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E31" t="s">
         <v>16</v>
@@ -1335,8 +1337,8 @@
       <c r="F31" t="s">
         <v>17</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>24</v>
+      <c r="G31" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H31" t="s">
         <v>16</v>
@@ -1344,66 +1346,66 @@
       <c r="I31" t="s">
         <v>17</v>
       </c>
-      <c r="J31" s="2" t="s">
-        <v>24</v>
+      <c r="J31" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>24</v>
+        <v>57</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E32" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>24</v>
+        <v>57</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H32" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I32" t="s">
-        <v>60</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>24</v>
+        <v>57</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="2:10">
       <c r="B33" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C33" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>24</v>
+        <v>59</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E33" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F33" t="s">
-        <v>62</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>24</v>
+        <v>59</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H33" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I33" t="s">
-        <v>62</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>24</v>
+        <v>59</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="2:10">
@@ -1411,28 +1413,28 @@
         <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>24</v>
+        <v>60</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E34" t="s">
         <v>21</v>
       </c>
       <c r="F34" t="s">
-        <v>63</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>24</v>
+        <v>60</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H34" t="s">
         <v>21</v>
       </c>
       <c r="I34" t="s">
-        <v>63</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>24</v>
+        <v>60</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="2:10">
@@ -1440,86 +1442,86 @@
         <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>64</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>24</v>
+        <v>61</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E35" t="s">
         <v>13</v>
       </c>
       <c r="F35" t="s">
-        <v>64</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>24</v>
+        <v>61</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H35" t="s">
         <v>13</v>
       </c>
       <c r="I35" t="s">
-        <v>64</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>24</v>
+        <v>61</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="2:10">
-      <c r="B36" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36" s="3" t="s">
+      <c r="B36" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F36" s="3" t="s">
+      <c r="D36" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G36" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I36" s="3" t="s">
+      <c r="G36" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I36" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>24</v>
+      <c r="J36" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="2:10">
       <c r="B37" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C37" t="s">
-        <v>67</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>24</v>
+        <v>64</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E37" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F37" t="s">
-        <v>67</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>24</v>
+        <v>64</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H37" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I37" t="s">
-        <v>67</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>24</v>
+        <v>64</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="2:10">
@@ -1529,8 +1531,8 @@
       <c r="C38" t="s">
         <v>20</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>24</v>
+      <c r="D38" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E38" t="s">
         <v>19</v>
@@ -1538,8 +1540,8 @@
       <c r="F38" t="s">
         <v>20</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>24</v>
+      <c r="G38" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H38" t="s">
         <v>19</v>
@@ -1547,8 +1549,8 @@
       <c r="I38" t="s">
         <v>20</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>24</v>
+      <c r="J38" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="2:10">
@@ -1558,8 +1560,8 @@
       <c r="C39" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>24</v>
+      <c r="D39" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E39" t="s">
         <v>10</v>
@@ -1567,8 +1569,8 @@
       <c r="F39" t="s">
         <v>22</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>24</v>
+      <c r="G39" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H39" t="s">
         <v>10</v>
@@ -1576,21 +1578,21 @@
       <c r="I39" t="s">
         <v>22</v>
       </c>
-      <c r="J39" s="2" t="s">
-        <v>24</v>
+      <c r="J39" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="2:10" ht="78" customHeight="1">
-      <c r="B42" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
+      <c r="B42" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
